--- a/src/main/java/org/example/workers.xlsx
+++ b/src/main/java/org/example/workers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>имя</t>
   </si>
@@ -24,18 +24,11 @@
   <si>
     <t>статус</t>
   </si>
-  <si>
-    <t>Маша</t>
-  </si>
-  <si>
-    <t>Саша</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -283,16 +276,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="3" max="3" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -306,28 +299,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/org/example/workers.xlsx
+++ b/src/main/java/org/example/workers.xlsx
@@ -279,7 +279,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
